--- a/Documents/COMP1640 Group04 CMS Sprint01.xlsx
+++ b/Documents/COMP1640 Group04 CMS Sprint01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -66,12 +66,24 @@
   <si>
     <t>Create basic project architecture</t>
   </si>
+  <si>
+    <t>Email: khanhtt0310@gmail.com</t>
+  </si>
+  <si>
+    <t>Password: 4learning!</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/y6UccCmo/sprint-01</t>
+  </si>
+  <si>
+    <t>Tasks Management:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -138,6 +150,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -296,10 +314,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -417,8 +436,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -861,11 +884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204297344"/>
-        <c:axId val="200393472"/>
+        <c:axId val="231283328"/>
+        <c:axId val="131780992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204297344"/>
+        <c:axId val="231283328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200393472"/>
+        <c:crossAx val="131780992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -912,7 +935,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200393472"/>
+        <c:axId val="131780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204297344"/>
+        <c:crossAx val="231283328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1268,7 +1291,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1282,7 +1305,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2825,20 +2848,26 @@
     <row r="14" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
     </row>
-    <row r="15" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-    </row>
+    <row r="15" spans="1:65" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:65" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="35" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="39" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="35" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="35" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
@@ -3072,9 +3101,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>